--- a/DateBase/orders/Dang Nguyen_2025-9-4.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-9-4.xlsx
@@ -768,6 +768,9 @@
       <c r="C40" t="str">
         <v>419_松虫草红_scabiosa watermelon_undefined_1bunch</v>
       </c>
+      <c r="F40" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -829,7 +832,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01510651041010510521064101051210112101020204020205101131010710150</v>
+        <v>01510651041010510521064101051210112101020204020205101131010710151</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-9-4.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-9-4.xlsx
@@ -769,7 +769,7 @@
         <v>419_松虫草红_scabiosa watermelon_undefined_1bunch</v>
       </c>
       <c r="F40" t="str">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -832,7 +832,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01510651041010510521064101051210112101020204020205101131010710151</v>
+        <v>015106510410105105210641010512101121010202040202051011310107101515</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-9-4.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-9-4.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L40"/>
+  <dimension ref="A1:L71"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -772,9 +772,276 @@
         <v>15</v>
       </c>
     </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>7</v>
+      </c>
+      <c r="C41" t="str">
+        <v>388_大丽花_dahlia_undefined_1bunch</v>
+      </c>
+      <c r="F41" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="C42" t="str">
+        <v>273_蓝调_bluetone_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F42" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" xml:space="preserve">
+      <c r="A43" t="str">
+        <v>8</v>
+      </c>
+      <c r="C43" t="str" xml:space="preserve">
+        <v xml:space="preserve">373_龙柳_Salix
+_undefined_1bunch</v>
+      </c>
+      <c r="F43" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>1</v>
+      </c>
+      <c r="C44" t="str">
+        <v>432_小刺秦/情人果_small Eryngium_undefined_1bunch</v>
+      </c>
+      <c r="F44" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" t="str">
+        <v>695_百合虎皮_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F45" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="str">
+        <v>696_百合笑脸_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F46" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" t="str">
+        <v>686_百合小粉仙_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F47" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="C48" t="str">
+        <v>678_百合皇后_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F48" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" t="str">
+        <v>792_珍珠梅白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F49" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" xml:space="preserve">
+      <c r="C50" t="str" xml:space="preserve">
+        <v xml:space="preserve">416_翠珠紫_Didiscus caeruleus
+blue_Trachymene Coerulea_1bunch</v>
+      </c>
+      <c r="F50" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="C51" t="str">
+        <v>558_油画小菊_Helenium_undefined_1bunch</v>
+      </c>
+      <c r="F51" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="C52" t="str">
+        <v>577_腊梅白_wax white_undefined_1bunch</v>
+      </c>
+      <c r="F52" t="str">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="C53" t="str">
+        <v>579_腊梅红_wax red_undefined_1bunch</v>
+      </c>
+      <c r="F53" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="C54" t="str">
+        <v>439_九星叶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F54" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>2</v>
+      </c>
+      <c r="C55" t="str">
+        <v>615_康乃馨野马_horse_undefined_20stems</v>
+      </c>
+      <c r="F55" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="C56" t="str">
+        <v>602_康乃馨白_white_undefined_20stems</v>
+      </c>
+      <c r="F56" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" t="str">
+        <v>412_紫罗兰粉_violet pink_undefined_1bunch</v>
+      </c>
+      <c r="F57" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="C58" t="str">
+        <v>411_紫罗兰白_violet white_undefined_1bunch</v>
+      </c>
+      <c r="F58" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="C59" t="str">
+        <v>12_肉粉洋桔梗_Peach Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F59" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="C60" t="str">
+        <v>9_茶色洋桔梗_Tea Color Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F60" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="C61" t="str">
+        <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F61" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="C62" t="str">
+        <v>41_拉丝白_Spider White_Gerbera L._20stems</v>
+      </c>
+      <c r="F62" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="C63" t="str">
+        <v>84_堪培拉_undefined_Gerbera L._10stems</v>
+      </c>
+      <c r="F63" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="C64" t="str">
+        <v>77_珍爱mini_undefined_Gerbera L._20stems</v>
+      </c>
+      <c r="F64" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="C65" t="str">
+        <v>624_多丁白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F65" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" xml:space="preserve">
+      <c r="A66" t="str">
+        <v>3</v>
+      </c>
+      <c r="C66" t="str" xml:space="preserve">
+        <v xml:space="preserve">510_翠珠白_Didiscus caeruleus 
+white_Trachymene Coerulea_1bunch</v>
+      </c>
+      <c r="F66" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" xml:space="preserve">
+      <c r="C67" t="str" xml:space="preserve">
+        <v xml:space="preserve">509_翠珠粉_Didiscus caeruleus
+pink_Trachymene Coerulea_1bunch</v>
+      </c>
+      <c r="F67" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="C68" t="str">
+        <v>476_酸浆果_Physalis_undefined_1bunch</v>
+      </c>
+      <c r="F68" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="C69" t="str">
+        <v>419_松虫草红_scabiosa watermelon_undefined_1bunch</v>
+      </c>
+      <c r="F69" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="C70" t="str">
+        <v>514_松虫草紫_scabiosa purple_undefined_1bunch</v>
+      </c>
+      <c r="F70" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="C71" t="str">
+        <v>314_松虫草花边黑_scabiosa_undefined_1bunch</v>
+      </c>
+      <c r="F71" t="str">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L40"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L71"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -832,7 +1099,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>015106510410105105210641010512101121010202040202051011310107101515</v>
+        <v>01510651041010510521064101051210112101020204020205101131010710151520510105532510101452010151515155151010155201051055</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-9-4.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-9-4.xlsx
@@ -1101,6 +1101,9 @@
       <c r="G2" t="str">
         <v>01510651041010510521064101051210112101020204020205101131010710151520510105532510101452010151515155151010155201051055</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
